--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
     <sheet name="РАО" sheetId="2" r:id="rId2"/>
-    <sheet name="Прочие" sheetId="3" r:id="rId3"/>
+    <sheet name="Отделы" sheetId="4" r:id="rId3"/>
+    <sheet name="Прочие" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="365">
   <si>
     <t>Сотрудник</t>
   </si>
@@ -1101,13 +1102,28 @@
   </si>
   <si>
     <t>Якиненко Артем Сергеевич</t>
+  </si>
+  <si>
+    <t>ОТДЕЛЕНИЕ РОССИЙСКОЙ СЛОВЕСНОСТИ</t>
+  </si>
+  <si>
+    <t>СЕКРИТАРИАТ ПОПЕЧИТЕЛЬСКОГО СОВЕТА</t>
+  </si>
+  <si>
+    <t>УПРАВЛЕНИЕ СЕКРИТАРИАТА И ПРОТОКОЛА</t>
+  </si>
+  <si>
+    <t>ЛАБОРАТОРИЯ СОВРЕМЕННЫХ ФОРМ И МЕТОДОВ ОБУЧЕНИЯ</t>
+  </si>
+  <si>
+    <t>ЛАБОРАТИРИЯ РАЗВИТИЯ ЦИФРОВОЙ ОБРАЗОВАТЕЛЬНОЙ СРЕДЫ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,8 +1140,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,8 +1177,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1175,11 +1226,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,6 +1325,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,15 +1702,15 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1529,7 +1718,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1537,1263 +1726,1263 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>226</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>244</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>262</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>263</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>290</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>25</v>
+        <v>308</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>27</v>
+        <v>315</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>37</v>
+        <v>325</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>82</v>
+        <v>358</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>84</v>
+        <v>312</v>
+      </c>
+      <c r="B51" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>17</v>
+        <v>297</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" t="s">
-        <v>96</v>
+      <c r="A58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>97</v>
+      <c r="A59" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>98</v>
+      <c r="A60" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>107</v>
+      <c r="A67" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" t="s">
-        <v>17</v>
+      <c r="A79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" t="s">
-        <v>127</v>
+      <c r="A80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>128</v>
+      <c r="A81" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>129</v>
+      <c r="A82" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>137</v>
+      <c r="A86" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" t="s">
-        <v>140</v>
+        <v>18</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" t="s">
-        <v>35</v>
+      <c r="A93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>148</v>
+      <c r="A94" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>149</v>
+      <c r="A95" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>150</v>
+      <c r="A96" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" t="s">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
+        <v>270</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
+        <v>271</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" t="s">
-        <v>27</v>
+        <v>62</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
+      <c r="A108" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>163</v>
+      <c r="A109" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>164</v>
+      <c r="A110" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>165</v>
+      <c r="A111" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" t="s">
-        <v>132</v>
+        <v>67</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115" t="s">
-        <v>58</v>
+        <v>273</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B123" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B124" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B132" t="s">
-        <v>115</v>
+        <v>264</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B133" t="s">
-        <v>190</v>
+        <v>267</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B137" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
+      <c r="A138" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>196</v>
+      <c r="A139" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>197</v>
+      <c r="A140" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>198</v>
+      <c r="A141" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>199</v>
+      <c r="A142" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>200</v>
+      <c r="A143" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>201</v>
+      <c r="A144" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="B144" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145" t="s">
-        <v>10</v>
+      <c r="A145" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>203</v>
+      <c r="A146" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B150" t="s">
-        <v>87</v>
+        <v>26</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B151" t="s">
-        <v>122</v>
+        <v>47</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B152" t="s">
-        <v>210</v>
+        <v>50</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B153" t="s">
-        <v>175</v>
+        <v>66</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B154" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B155" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B157" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>27</v>
@@ -2801,207 +2990,207 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B174" t="s">
-        <v>17</v>
+        <v>265</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B175" t="s">
-        <v>205</v>
+        <v>272</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="B179" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B181" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="B187" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="B188" t="s">
         <v>27</v>
@@ -3009,15 +3198,15 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
@@ -3025,7 +3214,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
@@ -3033,813 +3222,816 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
       <c r="B192" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="B193" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>255</v>
+      <c r="A194" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B195" t="s">
-        <v>17</v>
+      <c r="A195" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B196" t="s">
-        <v>10</v>
+      <c r="A196" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>258</v>
+      <c r="A197" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B197" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>259</v>
+      <c r="A198" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="B198" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>260</v>
+      <c r="A199" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>261</v>
+      <c r="A200" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>262</v>
+      <c r="A201" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>263</v>
+      <c r="A202" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+      <c r="B203" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="B204" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
+      </c>
+      <c r="B205" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>17</v>
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>138</v>
+        <v>317</v>
+      </c>
+      <c r="B207" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B208" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>111</v>
+        <v>228</v>
+      </c>
+      <c r="B209" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>52</v>
+        <v>293</v>
+      </c>
+      <c r="B210" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>52</v>
+        <v>338</v>
+      </c>
+      <c r="B211" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="B212" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>68</v>
+        <v>337</v>
+      </c>
+      <c r="B213" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B215" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="B217" t="s">
-        <v>278</v>
+        <v>132</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B218" t="s">
-        <v>27</v>
+      <c r="A218" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>280</v>
+      <c r="A219" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>281</v>
+      <c r="A220" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B220" t="s">
-        <v>282</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>283</v>
+      <c r="A221" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B221" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>284</v>
+      <c r="A222" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B222" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>285</v>
+      <c r="A223" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B223" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>286</v>
+      <c r="A224" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>287</v>
+      <c r="A225" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>288</v>
+      <c r="A226" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>289</v>
+      <c r="A227" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B227" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>290</v>
+      <c r="A228" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>291</v>
+      <c r="A229" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B229" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>292</v>
+      <c r="A230" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>293</v>
+      <c r="A231" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B232" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B234" t="s">
-        <v>27</v>
+      <c r="A234" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>297</v>
+      <c r="A235" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B235" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>299</v>
+      <c r="A236" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>300</v>
+      <c r="A237" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B238" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B239" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B240" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B241" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="B243" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B244" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>308</v>
+        <v>145</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="B246" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="B248" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="B249" t="s">
-        <v>313</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="B250" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B252" t="s">
-        <v>136</v>
+        <v>266</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B253" t="s">
-        <v>87</v>
+        <v>266</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B255" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B256" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B257" t="s">
-        <v>322</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B258" t="s">
-        <v>324</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>326</v>
+        <v>110</v>
       </c>
       <c r="B260" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B261" t="s">
-        <v>33</v>
+        <v>269</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B262" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="B263" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="B264" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B265" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B266" t="s">
-        <v>111</v>
+        <v>54</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B268" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B269" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>336</v>
+        <v>93</v>
       </c>
       <c r="B270" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="B271" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B272" t="s">
-        <v>229</v>
+        <v>28</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="B273" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="B274" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="B275" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B276" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B277" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B278" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="B280" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B281" t="s">
-        <v>138</v>
+        <v>34</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="B282" t="s">
-        <v>349</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>350</v>
+        <v>123</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="B285" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>353</v>
+        <v>192</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>354</v>
+        <v>224</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B288" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B289" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B290" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="B292" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G292">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3848,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6114,6 +6306,432 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="5" max="6" width="9.140625" style="8"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A70:XFD70"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A55:XFD55"/>
+    <mergeCell ref="A60:XFD60"/>
+    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A65:XFD65"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A47:XFD47"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A7:XFD7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G291"/>
   <sheetViews>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="366">
   <si>
     <t>Сотрудник</t>
   </si>
@@ -1117,13 +1117,16 @@
   </si>
   <si>
     <t>ЛАБОРАТИРИЯ РАЗВИТИЯ ЦИФРОВОЙ ОБРАЗОВАТЕЛЬНОЙ СРЕДЫ</t>
+  </si>
+  <si>
+    <t>ЛАБОРАТОРИЯ КООРДИНАЦИИ И МОНИТОРИНГА ДИССЕРТАЦИОННЫХ ИССЛЕДОВАНИЙ ПО ПЕДАГОГИЧЕСКИМ И ПСИХОЛОГИЧЕСКИМ НАУКАМ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,8 +1166,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,12 +1369,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1371,14 +1381,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2374,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B83" t="s">
@@ -2357,7 +2382,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B84" t="s">
@@ -2365,7 +2390,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="25" t="s">
         <v>258</v>
       </c>
       <c r="B85" t="s">
@@ -6307,18 +6332,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="36" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="3" max="3" width="22.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="15"/>
     <col min="5" max="6" width="9.140625" style="8"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -6330,13 +6355,13 @@
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6360,8 +6385,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6400,8 +6425,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6415,8 +6440,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6430,8 +6455,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6445,8 +6470,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6455,8 +6480,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6470,13 +6495,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:2" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6485,8 +6510,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6560,8 +6585,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:2" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6586,17 +6611,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+    <row r="53" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6605,8 +6630,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+    <row r="55" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6630,20 +6655,20 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+    <row r="60" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+    <row r="61" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
@@ -6660,15 +6685,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+    <row r="65" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
@@ -6690,24 +6715,61 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+    <row r="70" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:6" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A72:XFD72"/>
     <mergeCell ref="A70:XFD70"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A53:XFD53"/>
@@ -6724,8 +6786,6 @@
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="A7:XFD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1443,21 +1443,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1472,12 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1506,12 +1485,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1523,6 +1496,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="33" t="s">
         <v>132</v>
       </c>
       <c r="B56" t="s">
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="33" t="s">
         <v>177</v>
       </c>
       <c r="B57" t="s">
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
       <c r="B68" t="s">
@@ -2381,7 +2381,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="33" t="s">
         <v>207</v>
       </c>
       <c r="B69" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2565,7 +2565,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="33" t="s">
         <v>326</v>
       </c>
       <c r="B92" t="s">
@@ -2661,7 +2661,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -2669,7 +2669,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="40" t="s">
+      <c r="A105" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -2677,7 +2677,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B106" t="s">
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="33" t="s">
         <v>351</v>
       </c>
       <c r="B107" t="s">
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="33" t="s">
         <v>280</v>
       </c>
       <c r="B135" t="s">
@@ -2917,7 +2917,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="40" t="s">
+      <c r="A136" s="33" t="s">
         <v>350</v>
       </c>
       <c r="B136" t="s">
@@ -3005,7 +3005,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="33" t="s">
         <v>134</v>
       </c>
       <c r="B147" t="s">
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="40" t="s">
+      <c r="A148" s="33" t="s">
         <v>274</v>
       </c>
       <c r="B148" t="s">
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="40" t="s">
+      <c r="A149" s="33" t="s">
         <v>315</v>
       </c>
       <c r="B149" t="s">
@@ -3029,7 +3029,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="29" t="s">
+      <c r="A150" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -3045,7 +3045,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -3053,7 +3053,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -3061,7 +3061,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -3069,7 +3069,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="29" t="s">
+      <c r="A155" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -3077,7 +3077,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="29" t="s">
+      <c r="A156" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -3093,7 +3093,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="29" t="s">
+      <c r="A158" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B158" t="s">
@@ -3101,7 +3101,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="29" t="s">
+      <c r="A159" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B159" t="s">
@@ -3109,7 +3109,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="29" t="s">
+      <c r="A160" s="24" t="s">
         <v>149</v>
       </c>
       <c r="B160" t="s">
@@ -3117,7 +3117,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="29" t="s">
+      <c r="A161" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B161" t="s">
@@ -3125,7 +3125,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="29" t="s">
+      <c r="A162" s="24" t="s">
         <v>162</v>
       </c>
       <c r="B162" t="s">
@@ -3133,7 +3133,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="29" t="s">
+      <c r="A163" s="24" t="s">
         <v>167</v>
       </c>
       <c r="B163" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="24" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
@@ -3149,7 +3149,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="29" t="s">
+      <c r="A165" s="24" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
@@ -3157,7 +3157,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="29" t="s">
+      <c r="A166" s="24" t="s">
         <v>195</v>
       </c>
       <c r="B166" t="s">
@@ -3165,7 +3165,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="29" t="s">
+      <c r="A167" s="24" t="s">
         <v>202</v>
       </c>
       <c r="B167" t="s">
@@ -3173,7 +3173,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="29" t="s">
+      <c r="A168" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B168" t="s">
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="29" t="s">
+      <c r="A169" s="24" t="s">
         <v>214</v>
       </c>
       <c r="B169" t="s">
@@ -3189,7 +3189,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="24" t="s">
         <v>220</v>
       </c>
       <c r="B170" t="s">
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="29" t="s">
+      <c r="A171" s="24" t="s">
         <v>248</v>
       </c>
       <c r="B171" t="s">
@@ -3205,7 +3205,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="29" t="s">
+      <c r="A172" s="24" t="s">
         <v>250</v>
       </c>
       <c r="B172" t="s">
@@ -3213,7 +3213,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="29" t="s">
+      <c r="A173" s="24" t="s">
         <v>251</v>
       </c>
       <c r="B173" t="s">
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="29" t="s">
+      <c r="A174" s="24" t="s">
         <v>264</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -3229,7 +3229,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="29" t="s">
+      <c r="A175" s="24" t="s">
         <v>271</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -3237,7 +3237,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="29" t="s">
+      <c r="A176" s="24" t="s">
         <v>278</v>
       </c>
       <c r="B176" t="s">
@@ -3245,7 +3245,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="29" t="s">
+      <c r="A177" s="24" t="s">
         <v>279</v>
       </c>
       <c r="B177" t="s">
@@ -3253,7 +3253,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="29" t="s">
+      <c r="A178" s="24" t="s">
         <v>282</v>
       </c>
       <c r="B178" t="s">
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="29" t="s">
+      <c r="A179" s="24" t="s">
         <v>283</v>
       </c>
       <c r="B179" t="s">
@@ -3269,7 +3269,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
+      <c r="A180" s="24" t="s">
         <v>288</v>
       </c>
       <c r="B180" t="s">
@@ -3277,7 +3277,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="29" t="s">
+      <c r="A181" s="24" t="s">
         <v>290</v>
       </c>
       <c r="B181" t="s">
@@ -3285,7 +3285,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="29" t="s">
+      <c r="A182" s="24" t="s">
         <v>295</v>
       </c>
       <c r="B182" t="s">
@@ -3293,7 +3293,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="29" t="s">
+      <c r="A183" s="24" t="s">
         <v>302</v>
       </c>
       <c r="B183" t="s">
@@ -3301,7 +3301,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="29" t="s">
+      <c r="A184" s="24" t="s">
         <v>303</v>
       </c>
       <c r="B184" t="s">
@@ -3309,7 +3309,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="24" t="s">
         <v>304</v>
       </c>
       <c r="B185" t="s">
@@ -3317,7 +3317,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="29" t="s">
+      <c r="A186" s="24" t="s">
         <v>308</v>
       </c>
       <c r="B186" t="s">
@@ -3325,7 +3325,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="29" t="s">
+      <c r="A187" s="24" t="s">
         <v>309</v>
       </c>
       <c r="B187" t="s">
@@ -3333,7 +3333,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="29" t="s">
+      <c r="A188" s="24" t="s">
         <v>325</v>
       </c>
       <c r="B188" t="s">
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="29" t="s">
+      <c r="A189" s="24" t="s">
         <v>329</v>
       </c>
       <c r="B189" t="s">
@@ -3349,7 +3349,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="29" t="s">
+      <c r="A190" s="24" t="s">
         <v>330</v>
       </c>
       <c r="B190" t="s">
@@ -3357,7 +3357,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="29" t="s">
+      <c r="A191" s="24" t="s">
         <v>335</v>
       </c>
       <c r="B191" t="s">
@@ -3365,7 +3365,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="29" t="s">
+      <c r="A192" s="24" t="s">
         <v>345</v>
       </c>
       <c r="B192" t="s">
@@ -3373,7 +3373,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="29" t="s">
+      <c r="A193" s="24" t="s">
         <v>355</v>
       </c>
       <c r="B193" t="s">
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="29" t="s">
+      <c r="A194" s="24" t="s">
         <v>358</v>
       </c>
       <c r="B194" t="s">
@@ -3493,7 +3493,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="40" t="s">
+      <c r="A208" s="33" t="s">
         <v>246</v>
       </c>
       <c r="B208" t="s">
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="40" t="s">
+      <c r="A232" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B232" s="3" t="s">
@@ -3733,7 +3733,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="40" t="s">
+      <c r="A238" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B238" s="3" t="s">
@@ -3741,7 +3741,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="40" t="s">
+      <c r="A239" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -3749,7 +3749,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="40" t="s">
+      <c r="A240" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B240" s="3" t="s">
@@ -3757,7 +3757,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="40" t="s">
+      <c r="A241" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -3765,7 +3765,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="40" t="s">
+      <c r="A242" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B242" t="s">
@@ -3773,7 +3773,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="40" t="s">
+      <c r="A243" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B243" t="s">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="40" t="s">
+      <c r="A244" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B244" t="s">
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="40" t="s">
+      <c r="A245" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B245" t="s">
@@ -3797,7 +3797,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="40" t="s">
+      <c r="A246" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B246" t="s">
@@ -3805,7 +3805,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="40" t="s">
+      <c r="A247" s="33" t="s">
         <v>186</v>
       </c>
       <c r="B247" t="s">
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="40" t="s">
+      <c r="A248" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B248" t="s">
@@ -3821,7 +3821,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="40" t="s">
+      <c r="A249" s="33" t="s">
         <v>233</v>
       </c>
       <c r="B249" t="s">
@@ -3829,7 +3829,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="40" t="s">
+      <c r="A250" s="33" t="s">
         <v>239</v>
       </c>
       <c r="B250" t="s">
@@ -3837,7 +3837,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="40" t="s">
+      <c r="A251" s="33" t="s">
         <v>255</v>
       </c>
       <c r="B251" t="s">
@@ -3845,7 +3845,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="40" t="s">
+      <c r="A252" s="33" t="s">
         <v>265</v>
       </c>
       <c r="B252" s="3" t="s">
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="33" t="s">
         <v>265</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -3861,7 +3861,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="40" t="s">
+      <c r="A254" s="33" t="s">
         <v>294</v>
       </c>
       <c r="B254" t="s">
@@ -3869,7 +3869,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="40" t="s">
+      <c r="A255" s="33" t="s">
         <v>299</v>
       </c>
       <c r="B255" t="s">
@@ -3877,7 +3877,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="40" t="s">
+      <c r="A256" s="33" t="s">
         <v>341</v>
       </c>
       <c r="B256" t="s">
@@ -3885,7 +3885,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="40" t="s">
+      <c r="A257" s="33" t="s">
         <v>342</v>
       </c>
       <c r="B257" t="s">
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="40" t="s">
+      <c r="A258" s="33" t="s">
         <v>352</v>
       </c>
       <c r="B258" t="s">
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="40" t="s">
+      <c r="A259" s="33" t="s">
         <v>353</v>
       </c>
       <c r="B259" t="s">
@@ -3997,7 +3997,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="40" t="s">
+      <c r="A271" s="33" t="s">
         <v>188</v>
       </c>
       <c r="B271" t="s">
@@ -6460,9 +6460,9 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36" style="38" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="38"/>
+    <col min="2" max="2" width="36" style="31" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6477,8 +6477,8 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6522,8 +6522,8 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6597,8 +6597,8 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6622,8 +6622,8 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6647,8 +6647,8 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6672,8 +6672,8 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6687,8 +6687,8 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6712,13 +6712,13 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6732,8 +6732,8 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6877,8 +6877,8 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6922,41 +6922,41 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+    <row r="52" spans="1:6" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C55" s="37"/>
+      <c r="C55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="C56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6970,8 +6970,8 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+    <row r="59" spans="1:6" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7015,20 +7015,20 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+    <row r="64" spans="1:6" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+    <row r="65" spans="1:6" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
@@ -7060,15 +7060,15 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+    <row r="69" spans="1:6" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
@@ -7110,43 +7110,43 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+    <row r="74" spans="1:6" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26" t="s">
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+    </row>
+    <row r="75" spans="1:6" s="23" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-    </row>
-    <row r="76" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B79" s="8"/>
@@ -7186,7 +7186,7 @@
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B83" s="8"/>
@@ -7226,7 +7226,7 @@
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="32" t="s">
         <v>364</v>
       </c>
       <c r="B87" s="8"/>
@@ -7235,46 +7235,46 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-    </row>
-    <row r="90" spans="1:6" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-    </row>
-    <row r="91" spans="1:6" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="26" t="s">
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-    </row>
-    <row r="92" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="14"/>
@@ -7282,8 +7282,8 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+    <row r="94" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="40" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="97" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="21" t="s">
         <v>356</v>
       </c>
       <c r="C97" s="14"/>
@@ -7317,8 +7317,8 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+    <row r="98" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C101" s="14"/>
@@ -7373,7 +7373,7 @@
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B104" s="8"/>
@@ -7440,13 +7440,13 @@
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
     </row>
-    <row r="111" spans="1:6" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="35" t="s">
+    <row r="112" spans="1:6" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
         <v>121</v>
       </c>
       <c r="B112" s="8"/>
@@ -7455,63 +7455,63 @@
       <c r="B113" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="28" t="s">
         <v>373</v>
       </c>
       <c r="B115" s="8"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="45"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+    <row r="119" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C120" s="14"/>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="36" t="s">
         <v>268</v>
       </c>
       <c r="C121" s="14"/>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="36" t="s">
         <v>331</v>
       </c>
       <c r="C122" s="14"/>
@@ -7540,7 +7540,7 @@
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="28" t="s">
         <v>366</v>
       </c>
       <c r="B123" s="8"/>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C124" s="14"/>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="45" t="s">
+      <c r="B125" s="36" t="s">
         <v>245</v>
       </c>
       <c r="C125" s="14"/>
@@ -7570,10 +7570,10 @@
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="45"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
       <c r="E126" s="8"/>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C127" s="14"/>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="14"/>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="45" t="s">
+      <c r="B129" s="36" t="s">
         <v>238</v>
       </c>
       <c r="C129" s="14"/>
@@ -7610,7 +7610,7 @@
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="28" t="s">
         <v>367</v>
       </c>
       <c r="B130" s="8"/>
@@ -7628,7 +7628,7 @@
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="35" t="s">
+      <c r="A132" s="28" t="s">
         <v>368</v>
       </c>
       <c r="B132" s="8"/>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C133" s="14"/>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="36" t="s">
         <v>181</v>
       </c>
       <c r="C134" s="14"/>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="45" t="s">
+      <c r="B135" s="36" t="s">
         <v>229</v>
       </c>
       <c r="C135" s="14"/>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="36" t="s">
         <v>236</v>
       </c>
       <c r="C136" s="14"/>
@@ -7678,7 +7678,7 @@
       <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B137" s="8"/>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="36" t="s">
         <v>90</v>
       </c>
       <c r="C138" s="14"/>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="36" t="s">
         <v>179</v>
       </c>
       <c r="C139" s="14"/>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="36" t="s">
         <v>318</v>
       </c>
       <c r="C140" s="14"/>
@@ -7718,7 +7718,7 @@
       <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="35" t="s">
+      <c r="A141" s="28" t="s">
         <v>369</v>
       </c>
       <c r="B141" s="8"/>
@@ -7736,7 +7736,7 @@
       <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="35" t="s">
+      <c r="A143" s="28" t="s">
         <v>370</v>
       </c>
       <c r="B143" s="8"/>
@@ -7761,14 +7761,14 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+    <row r="146" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="45" t="s">
+      <c r="B147" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C147" s="14"/>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C148" s="14"/>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="45" t="s">
+      <c r="B149" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C149" s="14"/>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="45" t="s">
+      <c r="B150" s="36" t="s">
         <v>146</v>
       </c>
       <c r="C150" s="14"/>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="45" t="s">
+      <c r="B151" s="36" t="s">
         <v>169</v>
       </c>
       <c r="C151" s="14"/>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="45" t="s">
+      <c r="B152" s="36" t="s">
         <v>191</v>
       </c>
       <c r="C152" s="14"/>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="37" t="s">
         <v>223</v>
       </c>
       <c r="C153" s="14"/>
@@ -7836,14 +7836,14 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="31" t="s">
+    <row r="154" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="45" t="s">
+      <c r="B155" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C155" s="14"/>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="45" t="s">
+      <c r="B156" s="36" t="s">
         <v>332</v>
       </c>
       <c r="C156" s="14"/>
@@ -7863,7 +7863,7 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="36" t="s">
         <v>334</v>
       </c>
       <c r="C157" s="14"/>
@@ -7871,14 +7871,14 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
+    <row r="158" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="40" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="45" t="s">
+      <c r="B159" s="36" t="s">
         <v>216</v>
       </c>
       <c r="C159" s="14"/>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="45" t="s">
+      <c r="B160" s="36" t="s">
         <v>313</v>
       </c>
       <c r="C160" s="14"/>
@@ -7896,14 +7896,14 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31" t="s">
+    <row r="161" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="40" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="45" t="s">
+      <c r="B162" s="36" t="s">
         <v>296</v>
       </c>
       <c r="C162" s="14"/>
@@ -7912,10 +7912,10 @@
       <c r="F162" s="8"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="35" t="s">
+      <c r="A163" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B163" s="45"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
       <c r="E163" s="8"/>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="45" t="s">
+      <c r="B164" s="36" t="s">
         <v>138</v>
       </c>
       <c r="C164" s="14"/>
@@ -7939,14 +7939,14 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="30" t="s">
+    <row r="166" spans="1:6" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="43" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="45" t="s">
+      <c r="B167" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C167" s="14"/>
@@ -7955,7 +7955,7 @@
       <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="35" t="s">
+      <c r="A168" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B168" s="8"/>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
-      <c r="B169" s="45" t="s">
+      <c r="B169" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C169" s="14"/>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
-      <c r="B170" s="45" t="s">
+      <c r="B170" s="36" t="s">
         <v>253</v>
       </c>
       <c r="C170" s="14"/>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="36" t="s">
         <v>258</v>
       </c>
       <c r="C171" s="14"/>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="36" t="s">
         <v>333</v>
       </c>
       <c r="C172" s="14"/>
@@ -8005,7 +8005,7 @@
       <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="35" t="s">
+      <c r="A173" s="28" t="s">
         <v>176</v>
       </c>
       <c r="B173" s="8"/>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
-      <c r="B174" s="45" t="s">
+      <c r="B174" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C174" s="14"/>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
-      <c r="B175" s="45" t="s">
+      <c r="B175" s="36" t="s">
         <v>218</v>
       </c>
       <c r="C175" s="14"/>
@@ -8035,7 +8035,7 @@
       <c r="F175" s="8"/>
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="35" t="s">
+      <c r="A176" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B176" s="8"/>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
-      <c r="B177" s="45" t="s">
+      <c r="B177" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C177" s="14"/>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
-      <c r="B178" s="45" t="s">
+      <c r="B178" s="36" t="s">
         <v>193</v>
       </c>
       <c r="C178" s="14"/>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="179" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
-      <c r="B179" s="45" t="s">
+      <c r="B179" s="36" t="s">
         <v>301</v>
       </c>
       <c r="C179" s="14"/>
@@ -8075,7 +8075,7 @@
       <c r="F179" s="8"/>
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="35" t="s">
+      <c r="A180" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B180" s="8"/>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
-      <c r="B181" s="45" t="s">
+      <c r="B181" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C181" s="14"/>
@@ -8102,14 +8102,14 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="31" t="s">
+    <row r="183" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="40" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-      <c r="B184" s="45" t="s">
+      <c r="B184" s="36" t="s">
         <v>322</v>
       </c>
       <c r="C184" s="14"/>
@@ -8118,7 +8118,7 @@
       <c r="F184" s="8"/>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="35" t="s">
+      <c r="A185" s="28" t="s">
         <v>372</v>
       </c>
       <c r="B185" s="8"/>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
-      <c r="B186" s="45" t="s">
+      <c r="B186" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C186" s="14"/>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="36" t="s">
         <v>148</v>
       </c>
       <c r="C187" s="14"/>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
-      <c r="B188" s="45" t="s">
+      <c r="B188" s="36" t="s">
         <v>230</v>
       </c>
       <c r="C188" s="14"/>
@@ -8158,7 +8158,7 @@
       <c r="F188" s="8"/>
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="35" t="s">
+      <c r="A189" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B189" s="8"/>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
-      <c r="B190" s="45" t="s">
+      <c r="B190" s="36" t="s">
         <v>136</v>
       </c>
       <c r="C190" s="14"/>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="191" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
-      <c r="B191" s="45" t="s">
+      <c r="B191" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C191" s="14"/>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
-      <c r="B192" s="45" t="s">
+      <c r="B192" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C192" s="14"/>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
-      <c r="B193" s="45" t="s">
+      <c r="B193" s="36" t="s">
         <v>263</v>
       </c>
       <c r="C193" s="14"/>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
-      <c r="B194" s="45" t="s">
+      <c r="B194" s="36" t="s">
         <v>266</v>
       </c>
       <c r="C194" s="14"/>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
-      <c r="B195" s="45" t="s">
+      <c r="B195" s="36" t="s">
         <v>346</v>
       </c>
       <c r="C195" s="14"/>
@@ -8235,14 +8235,14 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
+    <row r="197" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="40" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
-      <c r="B198" s="45" t="s">
+      <c r="B198" s="36" t="s">
         <v>208</v>
       </c>
       <c r="C198" s="14"/>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="199" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
-      <c r="B199" s="45" t="s">
+      <c r="B199" s="36" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="14"/>
@@ -8262,7 +8262,7 @@
     </row>
     <row r="200" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
-      <c r="B200" s="45" t="s">
+      <c r="B200" s="36" t="s">
         <v>339</v>
       </c>
       <c r="C200" s="14"/>
@@ -8271,7 +8271,7 @@
       <c r="F200" s="8"/>
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="35" t="s">
+      <c r="A201" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B201" s="8"/>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="202" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
-      <c r="B202" s="45" t="s">
+      <c r="B202" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C202" s="14"/>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="203" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
-      <c r="B203" s="45" t="s">
+      <c r="B203" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C203" s="14"/>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="204" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
-      <c r="B204" s="45" t="s">
+      <c r="B204" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C204" s="14"/>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
-      <c r="B205" s="45" t="s">
+      <c r="B205" s="36" t="s">
         <v>272</v>
       </c>
       <c r="C205" s="14"/>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="206" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
-      <c r="B206" s="45" t="s">
+      <c r="B206" s="36" t="s">
         <v>354</v>
       </c>
       <c r="C206" s="14"/>
@@ -8338,14 +8338,14 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="31" t="s">
+    <row r="208" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="40" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="B209" s="45" t="s">
+      <c r="B209" s="36" t="s">
         <v>130</v>
       </c>
       <c r="C209" s="14"/>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="210" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="45" t="s">
+      <c r="B210" s="36" t="s">
         <v>165</v>
       </c>
       <c r="C210" s="14"/>
@@ -8364,7 +8364,7 @@
       <c r="F210" s="8"/>
     </row>
     <row r="211" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="35" t="s">
+      <c r="A211" s="28" t="s">
         <v>281</v>
       </c>
       <c r="B211" s="8"/>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="212" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="45" t="s">
+      <c r="B212" s="36" t="s">
         <v>280</v>
       </c>
       <c r="C212" s="14"/>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="213" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
-      <c r="B213" s="45" t="s">
+      <c r="B213" s="36" t="s">
         <v>350</v>
       </c>
       <c r="C213" s="14"/>
@@ -8394,7 +8394,7 @@
       <c r="F213" s="8"/>
     </row>
     <row r="214" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="35" t="s">
+      <c r="A214" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B214" s="8"/>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="215" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="45" t="s">
+      <c r="B215" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C215" s="14"/>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="216" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="45" t="s">
+      <c r="B216" s="36" t="s">
         <v>61</v>
       </c>
       <c r="C216" s="14"/>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="217" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="45" t="s">
+      <c r="B217" s="36" t="s">
         <v>166</v>
       </c>
       <c r="C217" s="14"/>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="218" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="45" t="s">
+      <c r="B218" s="36" t="s">
         <v>351</v>
       </c>
       <c r="C218" s="14"/>
@@ -8444,7 +8444,7 @@
       <c r="F218" s="8"/>
     </row>
     <row r="219" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="35" t="s">
+      <c r="A219" s="28" t="s">
         <v>247</v>
       </c>
       <c r="B219" s="8"/>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="220" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
-      <c r="B220" s="45" t="s">
+      <c r="B220" s="36" t="s">
         <v>246</v>
       </c>
       <c r="C220" s="14"/>
@@ -8470,14 +8470,14 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="31" t="s">
+    <row r="222" spans="1:6" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="45" t="s">
+      <c r="B223" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C223" s="14"/>
@@ -8486,7 +8486,7 @@
       <c r="F223" s="8"/>
     </row>
     <row r="224" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="35" t="s">
+      <c r="A224" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B224" s="8"/>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="225" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="45" t="s">
+      <c r="B225" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C225" s="14"/>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="226" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="45" t="s">
+      <c r="B226" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C226" s="14"/>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="227" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="45" t="s">
+      <c r="B227" s="36" t="s">
         <v>315</v>
       </c>
       <c r="C227" s="14"/>
@@ -8526,7 +8526,7 @@
       <c r="F227" s="8"/>
     </row>
     <row r="228" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="35" t="s">
+      <c r="A228" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B228" s="8"/>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="229" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="45" t="s">
+      <c r="B229" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C229" s="14"/>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="230" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="45" t="s">
+      <c r="B230" s="36" t="s">
         <v>232</v>
       </c>
       <c r="C230" s="14"/>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="231" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="45" t="s">
+      <c r="B231" s="36" t="s">
         <v>260</v>
       </c>
       <c r="C231" s="14"/>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="232" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="45" t="s">
+      <c r="B232" s="36" t="s">
         <v>269</v>
       </c>
       <c r="C232" s="14"/>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="233" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="45" t="s">
+      <c r="B233" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C233" s="14"/>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="234" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="45" t="s">
+      <c r="B234" s="36" t="s">
         <v>317</v>
       </c>
       <c r="C234" s="14"/>
@@ -8596,7 +8596,7 @@
       <c r="F234" s="8"/>
     </row>
     <row r="235" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="35" t="s">
+      <c r="A235" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B235" s="8"/>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="236" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="45" t="s">
+      <c r="B236" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C236" s="14"/>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="237" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="45" t="s">
+      <c r="B237" s="36" t="s">
         <v>177</v>
       </c>
       <c r="C237" s="14"/>
@@ -8626,7 +8626,7 @@
       <c r="F237" s="8"/>
     </row>
     <row r="238" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="35" t="s">
+      <c r="A238" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B238" s="8"/>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="239" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="45" t="s">
+      <c r="B239" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C239" s="14"/>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="240" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="45" t="s">
+      <c r="B240" s="36" t="s">
         <v>38</v>
       </c>
       <c r="C240" s="14"/>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="241" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="45" t="s">
+      <c r="B241" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C241" s="14"/>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="242" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="45" t="s">
+      <c r="B242" s="36" t="s">
         <v>89</v>
       </c>
       <c r="C242" s="14"/>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="243" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="45" t="s">
+      <c r="B243" s="36" t="s">
         <v>96</v>
       </c>
       <c r="C243" s="14"/>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="244" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="45" t="s">
+      <c r="B244" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C244" s="14"/>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="245" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="45" t="s">
+      <c r="B245" s="36" t="s">
         <v>142</v>
       </c>
       <c r="C245" s="14"/>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="246" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="45" t="s">
+      <c r="B246" s="36" t="s">
         <v>144</v>
       </c>
       <c r="C246" s="14"/>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="247" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="45" t="s">
+      <c r="B247" s="36" t="s">
         <v>185</v>
       </c>
       <c r="C247" s="14"/>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="248" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="45" t="s">
+      <c r="B248" s="36" t="s">
         <v>186</v>
       </c>
       <c r="C248" s="14"/>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="249" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="45" t="s">
+      <c r="B249" s="36" t="s">
         <v>215</v>
       </c>
       <c r="C249" s="14"/>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="250" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
-      <c r="B250" s="45" t="s">
+      <c r="B250" s="36" t="s">
         <v>233</v>
       </c>
       <c r="C250" s="14"/>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="251" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
-      <c r="B251" s="45" t="s">
+      <c r="B251" s="36" t="s">
         <v>239</v>
       </c>
       <c r="C251" s="14"/>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="252" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
-      <c r="B252" s="45" t="s">
+      <c r="B252" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C252" s="14"/>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="253" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
-      <c r="B253" s="45" t="s">
+      <c r="B253" s="36" t="s">
         <v>265</v>
       </c>
       <c r="C253" s="14"/>
@@ -8787,7 +8787,7 @@
     </row>
     <row r="254" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="B254" s="45" t="s">
+      <c r="B254" s="36" t="s">
         <v>265</v>
       </c>
       <c r="C254" s="14"/>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="255" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
-      <c r="B255" s="45" t="s">
+      <c r="B255" s="36" t="s">
         <v>294</v>
       </c>
       <c r="C255" s="14"/>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="256" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
-      <c r="B256" s="45" t="s">
+      <c r="B256" s="36" t="s">
         <v>299</v>
       </c>
       <c r="C256" s="14"/>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="257" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="45" t="s">
+      <c r="B257" s="36" t="s">
         <v>341</v>
       </c>
       <c r="C257" s="14"/>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="258" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="45" t="s">
+      <c r="B258" s="36" t="s">
         <v>342</v>
       </c>
       <c r="C258" s="14"/>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="259" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="45" t="s">
+      <c r="B259" s="36" t="s">
         <v>352</v>
       </c>
       <c r="C259" s="14"/>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="260" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="45" t="s">
+      <c r="B260" s="36" t="s">
         <v>353</v>
       </c>
       <c r="C260" s="14"/>
@@ -8863,19 +8863,19 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="20" t="s">
+    <row r="262" spans="1:6" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="20"/>
-      <c r="E262" s="20"/>
-      <c r="F262" s="20"/>
+      <c r="B262" s="38"/>
+      <c r="C262" s="38"/>
+      <c r="D262" s="38"/>
+      <c r="E262" s="38"/>
+      <c r="F262" s="38"/>
     </row>
     <row r="263" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="45" t="s">
+      <c r="B263" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C263" s="14"/>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="264" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="45" t="s">
+      <c r="B264" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C264" s="14"/>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="265" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="45" t="s">
+      <c r="B265" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C265" s="14"/>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="266" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="45" t="s">
+      <c r="B266" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C266" s="14"/>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="267" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="45" t="s">
+      <c r="B267" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C267" s="14"/>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="268" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="45" t="s">
+      <c r="B268" s="36" t="s">
         <v>69</v>
       </c>
       <c r="C268" s="14"/>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="269" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="45" t="s">
+      <c r="B269" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C269" s="14"/>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="270" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="45" t="s">
+      <c r="B270" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C270" s="14"/>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="271" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="45" t="s">
+      <c r="B271" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C271" s="14"/>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="272" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
-      <c r="B272" s="45" t="s">
+      <c r="B272" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C272" s="14"/>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="273" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
-      <c r="B273" s="45" t="s">
+      <c r="B273" s="36" t="s">
         <v>149</v>
       </c>
       <c r="C273" s="14"/>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="274" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
-      <c r="B274" s="45" t="s">
+      <c r="B274" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C274" s="14"/>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="275" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
-      <c r="B275" s="45" t="s">
+      <c r="B275" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C275" s="14"/>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="276" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
-      <c r="B276" s="45" t="s">
+      <c r="B276" s="36" t="s">
         <v>167</v>
       </c>
       <c r="C276" s="14"/>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="277" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
-      <c r="B277" s="45" t="s">
+      <c r="B277" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C277" s="14"/>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="278" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
-      <c r="B278" s="45" t="s">
+      <c r="B278" s="36" t="s">
         <v>171</v>
       </c>
       <c r="C278" s="14"/>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="279" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
-      <c r="B279" s="45" t="s">
+      <c r="B279" s="36" t="s">
         <v>195</v>
       </c>
       <c r="C279" s="14"/>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="280" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
-      <c r="B280" s="45" t="s">
+      <c r="B280" s="36" t="s">
         <v>202</v>
       </c>
       <c r="C280" s="14"/>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="281" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
-      <c r="B281" s="45" t="s">
+      <c r="B281" s="36" t="s">
         <v>212</v>
       </c>
       <c r="C281" s="14"/>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="282" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
-      <c r="B282" s="45" t="s">
+      <c r="B282" s="36" t="s">
         <v>214</v>
       </c>
       <c r="C282" s="14"/>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="283" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="45" t="s">
+      <c r="B283" s="36" t="s">
         <v>220</v>
       </c>
       <c r="C283" s="14"/>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="284" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
-      <c r="B284" s="45" t="s">
+      <c r="B284" s="36" t="s">
         <v>248</v>
       </c>
       <c r="C284" s="14"/>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="285" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
-      <c r="B285" s="45" t="s">
+      <c r="B285" s="36" t="s">
         <v>250</v>
       </c>
       <c r="C285" s="14"/>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="286" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
-      <c r="B286" s="45" t="s">
+      <c r="B286" s="36" t="s">
         <v>251</v>
       </c>
       <c r="C286" s="14"/>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="287" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
-      <c r="B287" s="45" t="s">
+      <c r="B287" s="36" t="s">
         <v>264</v>
       </c>
       <c r="C287" s="14"/>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="288" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
-      <c r="B288" s="45" t="s">
+      <c r="B288" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C288" s="14"/>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="289" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
-      <c r="B289" s="45" t="s">
+      <c r="B289" s="36" t="s">
         <v>278</v>
       </c>
       <c r="C289" s="14"/>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="290" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
-      <c r="B290" s="45" t="s">
+      <c r="B290" s="36" t="s">
         <v>279</v>
       </c>
       <c r="C290" s="14"/>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="291" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
-      <c r="B291" s="45" t="s">
+      <c r="B291" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C291" s="14"/>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="292" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
-      <c r="B292" s="45" t="s">
+      <c r="B292" s="36" t="s">
         <v>283</v>
       </c>
       <c r="C292" s="14"/>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="293" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
-      <c r="B293" s="45" t="s">
+      <c r="B293" s="36" t="s">
         <v>288</v>
       </c>
       <c r="C293" s="14"/>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="294" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
-      <c r="B294" s="45" t="s">
+      <c r="B294" s="36" t="s">
         <v>290</v>
       </c>
       <c r="C294" s="14"/>
@@ -9195,7 +9195,7 @@
     </row>
     <row r="295" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
-      <c r="B295" s="45" t="s">
+      <c r="B295" s="36" t="s">
         <v>295</v>
       </c>
       <c r="C295" s="14"/>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="296" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
-      <c r="B296" s="45" t="s">
+      <c r="B296" s="36" t="s">
         <v>302</v>
       </c>
       <c r="C296" s="14"/>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="297" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
-      <c r="B297" s="45" t="s">
+      <c r="B297" s="36" t="s">
         <v>303</v>
       </c>
       <c r="C297" s="14"/>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="298" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
-      <c r="B298" s="45" t="s">
+      <c r="B298" s="36" t="s">
         <v>304</v>
       </c>
       <c r="C298" s="14"/>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="299" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
-      <c r="B299" s="45" t="s">
+      <c r="B299" s="36" t="s">
         <v>308</v>
       </c>
       <c r="C299" s="14"/>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="300" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
-      <c r="B300" s="45" t="s">
+      <c r="B300" s="36" t="s">
         <v>309</v>
       </c>
       <c r="C300" s="14"/>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="301" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
-      <c r="B301" s="45" t="s">
+      <c r="B301" s="36" t="s">
         <v>325</v>
       </c>
       <c r="C301" s="14"/>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="302" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
-      <c r="B302" s="45" t="s">
+      <c r="B302" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C302" s="14"/>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="303" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
-      <c r="B303" s="45" t="s">
+      <c r="B303" s="36" t="s">
         <v>330</v>
       </c>
       <c r="C303" s="14"/>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="304" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
-      <c r="B304" s="45" t="s">
+      <c r="B304" s="36" t="s">
         <v>335</v>
       </c>
       <c r="C304" s="14"/>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="305" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
-      <c r="B305" s="45" t="s">
+      <c r="B305" s="36" t="s">
         <v>345</v>
       </c>
       <c r="C305" s="14"/>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="306" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
-      <c r="B306" s="45" t="s">
+      <c r="B306" s="36" t="s">
         <v>355</v>
       </c>
       <c r="C306" s="14"/>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="307" spans="1:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
-      <c r="B307" s="45" t="s">
+      <c r="B307" s="36" t="s">
         <v>358</v>
       </c>
       <c r="C307" s="14"/>
@@ -9324,30 +9324,10 @@
       <c r="F307" s="8"/>
     </row>
     <row r="308" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="44"/>
+      <c r="A308" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A262:XFD262"/>
-    <mergeCell ref="A183:XFD183"/>
-    <mergeCell ref="A197:XFD197"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A222:XFD222"/>
-    <mergeCell ref="A110:XFD110"/>
-    <mergeCell ref="A146:XFD146"/>
-    <mergeCell ref="A154:XFD154"/>
-    <mergeCell ref="A158:XFD158"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A166:XFD166"/>
-    <mergeCell ref="A92:XFD92"/>
-    <mergeCell ref="A94:XFD94"/>
-    <mergeCell ref="A98:XFD98"/>
-    <mergeCell ref="A119:XFD119"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A52:XFD52"/>
     <mergeCell ref="A15:XFD15"/>
     <mergeCell ref="A7:XFD7"/>
     <mergeCell ref="A76:XFD76"/>
@@ -9363,6 +9343,26 @@
     <mergeCell ref="A30:XFD30"/>
     <mergeCell ref="A29:XFD29"/>
     <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A166:XFD166"/>
+    <mergeCell ref="A92:XFD92"/>
+    <mergeCell ref="A94:XFD94"/>
+    <mergeCell ref="A98:XFD98"/>
+    <mergeCell ref="A119:XFD119"/>
+    <mergeCell ref="A110:XFD110"/>
+    <mergeCell ref="A146:XFD146"/>
+    <mergeCell ref="A154:XFD154"/>
+    <mergeCell ref="A158:XFD158"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A262:XFD262"/>
+    <mergeCell ref="A183:XFD183"/>
+    <mergeCell ref="A197:XFD197"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A222:XFD222"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
